--- a/xlsx/基层官僚_intext.xlsx
+++ b/xlsx/基层官僚_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
